--- a/doc/1. 내항 여객선 운항 데이터.xlsx
+++ b/doc/1. 내항 여객선 운항 데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\빅데이터실\해양교통빅데이터실\0.빅데이터실\해양수산 빅데이터 플랫폼 및 센터 구축 사업\운항데이터\1. 내항 여객선 운항 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGY\Desktop\DEVELOP\GIT\blueOcean\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="409">
   <si>
     <t>총톤수</t>
   </si>
@@ -735,39 +735,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하계 일일 운항횟수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동계 일일 운항횟수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>차량적재대수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소요시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출항지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운항거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기관 1개당 추진력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -821,791 +797,966 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>REQRE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENGN_CO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNSTR_YEAR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNSTR_MONTH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNSTR_DAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHPCPN_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRST_OPORT_PRT_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_PORTCL_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_PORTCL_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_PORTCL_REQRE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSNSHP_GT</t>
+  </si>
+  <si>
+    <t>중간기항지 순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간기항지 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간기항지 소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720분</t>
+  </si>
+  <si>
+    <t>자월도</t>
+  </si>
+  <si>
+    <t>60분</t>
+  </si>
+  <si>
+    <t>승봉</t>
+  </si>
+  <si>
+    <t>1시간20분</t>
+  </si>
+  <si>
+    <t>신도</t>
+  </si>
+  <si>
+    <t>볼음도</t>
+  </si>
+  <si>
+    <t>95분</t>
+  </si>
+  <si>
+    <t>자월</t>
+  </si>
+  <si>
+    <t>50분</t>
+  </si>
+  <si>
+    <t>소청</t>
+  </si>
+  <si>
+    <t>185분</t>
+  </si>
+  <si>
+    <t>205분</t>
+  </si>
+  <si>
+    <t>대청</t>
+  </si>
+  <si>
+    <t>20분</t>
+  </si>
+  <si>
+    <t>소연평</t>
+  </si>
+  <si>
+    <t>110분</t>
+  </si>
+  <si>
+    <t>대부도</t>
+  </si>
+  <si>
+    <t>문갑</t>
+  </si>
+  <si>
+    <t>미법도</t>
+  </si>
+  <si>
+    <t>10분</t>
+  </si>
+  <si>
+    <t>울릉(사동)</t>
+  </si>
+  <si>
+    <t>160분</t>
+  </si>
+  <si>
+    <t>울릉(도동)</t>
+  </si>
+  <si>
+    <t>170분</t>
+  </si>
+  <si>
+    <t>울릉(저동)</t>
+  </si>
+  <si>
+    <t>180분</t>
+  </si>
+  <si>
+    <t>저두</t>
+  </si>
+  <si>
+    <t>15분</t>
+  </si>
+  <si>
+    <t>삽시도</t>
+  </si>
+  <si>
+    <t>40분</t>
+  </si>
+  <si>
+    <t>호도</t>
+  </si>
+  <si>
+    <t>소난지도</t>
+  </si>
+  <si>
+    <t>월도</t>
+  </si>
+  <si>
+    <t>25분</t>
+  </si>
+  <si>
+    <t>고파도</t>
+  </si>
+  <si>
+    <t>금진</t>
+  </si>
+  <si>
+    <t>우두</t>
+  </si>
+  <si>
+    <t>27분</t>
+  </si>
+  <si>
+    <t>격포</t>
+  </si>
+  <si>
+    <t>위도</t>
+  </si>
+  <si>
+    <t>연도</t>
+  </si>
+  <si>
+    <t>장자도</t>
+  </si>
+  <si>
+    <t>100분</t>
+  </si>
+  <si>
+    <t>95분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소야도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종점지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNL_PORTCL_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕적도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이작도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장봉도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백령도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서검도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴업도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대연평도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40뷴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소청도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대청도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승봉도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아차도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효자도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장고도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대난지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허육도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성산포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금당(울포)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕등도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어청도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장자도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방축도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산/개야도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산/어청도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개야도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSNSHP_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여객선 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTR_NVG_CO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">동계 일일 운항횟수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOYAGE_VE_NOTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">속력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT-&gt; FLOAT)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUTE_DSTNC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">운항거리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">소요시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기관 1개당 추진력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENGN_KW_OUTPT_PER_1SET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">중간기항지 소요시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_PORTCL_REQRE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">중간기항지 소요시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_PORTCL_REQRE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNL_PORTCL_REQRE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">종점지 소요시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SMR_NVG_CO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WTR_NVG_CO</t>
+    <r>
+      <t xml:space="preserve">하계 일일 운항횟수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INT -&gt; VARCHAR)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOYAGE_VE_NOTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUTE_DSTNC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQRE_TIME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENGN_KW_OUTPT_PER_1SET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENGN_CO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNSTR_YEAR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNSTR_MONTH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNSTR_DAY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHPCPN_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRST_OPORT_PRT_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID_PORTCL_NO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID_PORTCL_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID_PORTCL_REQRE_TIME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSNSHP_GT</t>
-  </si>
-  <si>
-    <t>중간기항지 순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간기항지 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간기항지 소요시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720분</t>
-  </si>
-  <si>
-    <t>자월도</t>
-  </si>
-  <si>
-    <t>60분</t>
-  </si>
-  <si>
-    <t>승봉</t>
-  </si>
-  <si>
-    <t>1시간20분</t>
-  </si>
-  <si>
-    <t>신도</t>
-  </si>
-  <si>
-    <t>볼음도</t>
-  </si>
-  <si>
-    <t>95분</t>
-  </si>
-  <si>
-    <t>자월</t>
-  </si>
-  <si>
-    <t>50분</t>
-  </si>
-  <si>
-    <t>소청</t>
-  </si>
-  <si>
-    <t>185분</t>
-  </si>
-  <si>
-    <t>205분</t>
-  </si>
-  <si>
-    <t>대청</t>
-  </si>
-  <si>
-    <t>20분</t>
-  </si>
-  <si>
-    <t>소연평</t>
-  </si>
-  <si>
-    <t>110분</t>
-  </si>
-  <si>
-    <t>대부도</t>
-  </si>
-  <si>
-    <t>문갑</t>
-  </si>
-  <si>
-    <t>미법도</t>
-  </si>
-  <si>
-    <t>10분</t>
-  </si>
-  <si>
-    <t>울릉(사동)</t>
-  </si>
-  <si>
-    <t>160분</t>
-  </si>
-  <si>
-    <t>울릉(도동)</t>
-  </si>
-  <si>
-    <t>170분</t>
-  </si>
-  <si>
-    <t>울릉(저동)</t>
-  </si>
-  <si>
-    <t>180분</t>
-  </si>
-  <si>
-    <t>저두</t>
-  </si>
-  <si>
-    <t>15분</t>
-  </si>
-  <si>
-    <t>삽시도</t>
-  </si>
-  <si>
-    <t>40분</t>
-  </si>
-  <si>
-    <t>호도</t>
-  </si>
-  <si>
-    <t>소난지도</t>
-  </si>
-  <si>
-    <t>월도</t>
-  </si>
-  <si>
-    <t>25분</t>
-  </si>
-  <si>
-    <t>고파도</t>
-  </si>
-  <si>
-    <t>금진</t>
-  </si>
-  <si>
-    <t>우두</t>
-  </si>
-  <si>
-    <t>27분</t>
-  </si>
-  <si>
-    <t>격포</t>
-  </si>
-  <si>
-    <t>위도</t>
-  </si>
-  <si>
-    <t>연도</t>
-  </si>
-  <si>
-    <t>장자도</t>
-  </si>
-  <si>
-    <t>100분</t>
-  </si>
-  <si>
-    <t>95분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소야도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>종점지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종점지 소요시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNL_PORTCL_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNL_PORTCL_REQRE_TIME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕적도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이작도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장봉도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백령도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서검도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굴업도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대연평도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>265분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40뷴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소청도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대청도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승봉도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아차도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효자도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선촌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장고도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고대도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외연도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대난지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허육도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성산포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비견</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금당(울포)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕등도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어청도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장자도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방축도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군산/개야도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>군산/어청도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개야도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSNSHP_CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>여객선 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1616,7 +1767,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1680,32 +1831,10 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1723,8 +1852,65 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1941,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1780,7 +1976,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,14 +1989,20 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,16 +2042,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,28 +2057,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,9 +2066,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="나쁨" xfId="8" builtinId="27"/>
     <cellStyle name="나쁨 2" xfId="6"/>
+    <cellStyle name="보통" xfId="9" builtinId="28"/>
     <cellStyle name="쉼표 [0] 2" xfId="2"/>
     <cellStyle name="쉼표 [0]_Sheet1 2" xfId="4"/>
     <cellStyle name="좋음 2" xfId="7"/>
@@ -2181,318 +2416,318 @@
   <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="12.25" style="14" customWidth="1"/>
-    <col min="42" max="43" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="10.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="12.25" style="12" customWidth="1"/>
+    <col min="42" max="43" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="24" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:64" s="17" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="L1" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="T1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="U1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="W1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="X1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="Y1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="22" t="s">
+      <c r="AA1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="Z2" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI2" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO2" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP1" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="AQ1" s="26" t="s">
-        <v>265</v>
+      <c r="AP2" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ2" s="38" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM2" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP2" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3">
@@ -2502,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -2579,36 +2814,36 @@
       <c r="AP3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16"/>
-      <c r="BL3" s="16"/>
+      <c r="AQ3" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
     </row>
-    <row r="4" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6">
@@ -2618,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -2638,7 +2873,7 @@
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="6">
@@ -2650,7 +2885,7 @@
       <c r="O4" s="6">
         <v>21</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="5">
@@ -2678,19 +2913,19 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="AA4" s="1">
         <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2705,38 +2940,38 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
+        <v>253</v>
+      </c>
+      <c r="AQ4" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
     </row>
-    <row r="5" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6">
@@ -2746,7 +2981,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
@@ -2778,7 +3013,7 @@
       <c r="O5" s="5">
         <v>21</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="5">
@@ -2806,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>269</v>
+        <v>208</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
@@ -2827,38 +3062,38 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="AQ5" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
     </row>
-    <row r="6" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6">
@@ -2868,7 +3103,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -2897,10 +3132,10 @@
       <c r="N6" s="6">
         <v>15</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="20">
         <v>6.4</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="20" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="5">
@@ -2928,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Z6" s="6">
         <v>10</v>
@@ -2949,38 +3184,38 @@
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
+        <v>257</v>
+      </c>
+      <c r="AQ6" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
     </row>
-    <row r="7" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="6">
@@ -2990,7 +3225,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -3019,10 +3254,10 @@
       <c r="N7" s="6">
         <v>16</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="20">
         <v>6.4</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="5">
@@ -3050,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Z7" s="6">
         <v>40</v>
@@ -3071,38 +3306,38 @@
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
+        <v>259</v>
+      </c>
+      <c r="AQ7" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
     </row>
-    <row r="8" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="6">
@@ -3112,7 +3347,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
@@ -3141,10 +3376,10 @@
       <c r="N8" s="6">
         <v>13</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="20">
         <v>17.8</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="5">
@@ -3172,19 +3407,19 @@
         <v>1</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="Z8" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="AA8" s="6">
         <v>2</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>276</v>
+        <v>287</v>
+      </c>
+      <c r="AC8" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
@@ -3199,38 +3434,38 @@
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
+        <v>261</v>
+      </c>
+      <c r="AQ8" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
     </row>
-    <row r="9" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6">
@@ -3240,7 +3475,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
@@ -3260,19 +3495,19 @@
       <c r="K9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="6">
         <v>12</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="20">
         <v>17.8</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="9">
@@ -3300,19 +3535,19 @@
         <v>1</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="AA9" s="6">
         <v>2</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>276</v>
+        <v>287</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
@@ -3327,38 +3562,38 @@
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ9" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
+        <v>261</v>
+      </c>
+      <c r="AQ9" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
     </row>
-    <row r="10" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="6">
@@ -3368,7 +3603,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -3388,19 +3623,19 @@
       <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N10" s="6">
         <v>25</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="20">
         <v>29.2</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="5">
@@ -3428,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Z10" s="6">
         <v>50</v>
@@ -3437,10 +3672,10 @@
         <v>2</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
@@ -3455,38 +3690,38 @@
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="AQ10" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
     </row>
-    <row r="11" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -3496,7 +3731,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
@@ -3525,10 +3760,10 @@
       <c r="N11" s="6">
         <v>16</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="20">
         <v>27.5</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="20" t="s">
         <v>45</v>
       </c>
       <c r="Q11" s="9">
@@ -3556,19 +3791,19 @@
         <v>1</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="AA11" s="5">
         <v>2</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>299</v>
+        <v>284</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -3583,38 +3818,38 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ11" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="AQ11" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
     </row>
-    <row r="12" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="6">
@@ -3624,7 +3859,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
@@ -3653,10 +3888,10 @@
       <c r="N12" s="6">
         <v>37</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="20">
         <v>29.2</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="5">
@@ -3684,19 +3919,19 @@
         <v>1</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="AA12" s="6">
         <v>2</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>285</v>
       </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
@@ -3711,38 +3946,38 @@
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="16"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="AQ12" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
     </row>
-    <row r="13" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="6">
@@ -3752,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>4</v>
@@ -3784,7 +4019,7 @@
       <c r="O13" s="6">
         <v>123</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="Q13" s="5">
@@ -3812,19 +4047,19 @@
         <v>1</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="Z13" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="AA13" s="6">
         <v>2</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="AC13" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
@@ -3839,38 +4074,38 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
+        <v>265</v>
+      </c>
+      <c r="AQ13" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
     </row>
-    <row r="14" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="5">
@@ -3880,7 +4115,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>4</v>
@@ -3912,7 +4147,7 @@
       <c r="O14" s="6">
         <v>123</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Q14" s="5">
@@ -3940,19 +4175,19 @@
         <v>1</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="Z14" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="AA14" s="5">
         <v>2</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="AC14" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
@@ -3967,38 +4202,38 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ14" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
+        <v>265</v>
+      </c>
+      <c r="AQ14" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
     </row>
-    <row r="15" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="5">
@@ -4008,7 +4243,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>4</v>
@@ -4040,7 +4275,7 @@
       <c r="O15" s="6">
         <v>123</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="20" t="s">
         <v>58</v>
       </c>
       <c r="Q15" s="5">
@@ -4068,19 +4303,19 @@
         <v>1</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="AA15" s="5">
         <v>2</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
+      </c>
+      <c r="AC15" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -4095,38 +4330,38 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ15" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
-      <c r="BF15" s="16"/>
-      <c r="BG15" s="16"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
-      <c r="BL15" s="16"/>
+        <v>273</v>
+      </c>
+      <c r="AQ15" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
     </row>
-    <row r="16" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="6">
@@ -4136,7 +4371,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>11</v>
@@ -4162,13 +4397,13 @@
       <c r="M16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="20">
         <v>24.9</v>
       </c>
       <c r="O16" s="5">
         <v>28</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="20" t="s">
         <v>40</v>
       </c>
       <c r="Q16" s="5">
@@ -4212,33 +4447,33 @@
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
-      <c r="BF16" s="16"/>
-      <c r="BG16" s="16"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="16"/>
-      <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
-      <c r="BL16" s="16"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
     </row>
-    <row r="17" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="6">
@@ -4248,7 +4483,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>4</v>
@@ -4280,7 +4515,7 @@
       <c r="O17" s="5">
         <v>28</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="20" t="s">
         <v>64</v>
       </c>
       <c r="Q17" s="5">
@@ -4324,33 +4559,33 @@
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="14"/>
     </row>
-    <row r="18" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="6">
@@ -4360,7 +4595,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>4</v>
@@ -4392,7 +4627,7 @@
       <c r="O18" s="5">
         <v>67</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="20" t="s">
         <v>45</v>
       </c>
       <c r="Q18" s="5">
@@ -4420,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
@@ -4441,38 +4676,38 @@
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
+        <v>271</v>
+      </c>
+      <c r="AQ18" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
     </row>
-    <row r="19" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="6">
@@ -4482,7 +4717,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>4</v>
@@ -4502,10 +4737,10 @@
       <c r="K19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N19" s="6">
@@ -4514,7 +4749,7 @@
       <c r="O19" s="5">
         <v>67</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="5">
@@ -4558,33 +4793,33 @@
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
-      <c r="BF19" s="16"/>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="16"/>
-      <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
-      <c r="BL19" s="16"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
     </row>
-    <row r="20" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="6">
@@ -4594,7 +4829,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
@@ -4626,7 +4861,7 @@
       <c r="O20" s="6">
         <v>27</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="20" t="s">
         <v>70</v>
       </c>
       <c r="Q20" s="5">
@@ -4654,19 +4889,19 @@
         <v>1</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z20" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="AA20" s="6">
         <v>2</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
@@ -4681,38 +4916,38 @@
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
-      <c r="BF20" s="16"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="16"/>
-      <c r="BL20" s="16"/>
+        <v>269</v>
+      </c>
+      <c r="AQ20" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
     </row>
-    <row r="21" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="5">
@@ -4722,7 +4957,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>4</v>
@@ -4751,10 +4986,10 @@
       <c r="N21" s="6">
         <v>15</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="20">
         <v>27.2</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="20" t="s">
         <v>73</v>
       </c>
       <c r="Q21" s="5">
@@ -4782,37 +5017,37 @@
         <v>1</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="Z21" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="AA21" s="6">
         <v>2</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="AC21" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="AD21" s="6">
         <v>3</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>291</v>
+        <v>277</v>
+      </c>
+      <c r="AF21" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="AG21" s="6">
         <v>4</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="AI21" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -4821,38 +5056,38 @@
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AR21" s="16"/>
-      <c r="AS21" s="16"/>
-      <c r="AT21" s="16"/>
-      <c r="AU21" s="16"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="16"/>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="16"/>
-      <c r="BG21" s="16"/>
-      <c r="BH21" s="16"/>
-      <c r="BI21" s="16"/>
-      <c r="BJ21" s="16"/>
-      <c r="BK21" s="16"/>
-      <c r="BL21" s="16"/>
+        <v>267</v>
+      </c>
+      <c r="AQ21" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
     </row>
-    <row r="22" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="5">
@@ -4862,7 +5097,7 @@
         <v>76</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
@@ -4891,10 +5126,10 @@
       <c r="N22" s="6">
         <v>10</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="20">
         <v>3.3</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Q22" s="5">
@@ -4922,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
@@ -4943,38 +5178,38 @@
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="16"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="16"/>
-      <c r="BE22" s="16"/>
-      <c r="BF22" s="16"/>
-      <c r="BG22" s="16"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="16"/>
-      <c r="BJ22" s="16"/>
-      <c r="BK22" s="16"/>
-      <c r="BL22" s="16"/>
+        <v>266</v>
+      </c>
+      <c r="AQ22" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
     </row>
-    <row r="23" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="6">
@@ -4984,7 +5219,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>4</v>
@@ -5013,7 +5248,7 @@
       <c r="N23" s="11">
         <v>40</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="20" t="s">
         <v>82</v>
       </c>
       <c r="P23" s="11">
@@ -5059,38 +5294,38 @@
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
       <c r="AP23" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ23" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="18"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="18"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="AQ23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
     </row>
-    <row r="24" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="6">
@@ -5100,7 +5335,7 @@
         <v>85</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
@@ -5129,7 +5364,7 @@
       <c r="N24" s="6">
         <v>35</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="20" t="s">
         <v>86</v>
       </c>
       <c r="P24" s="11">
@@ -5175,38 +5410,38 @@
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
       <c r="AP24" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="18"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-      <c r="AX24" s="18"/>
-      <c r="AY24" s="18"/>
-      <c r="AZ24" s="18"/>
-      <c r="BA24" s="18"/>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="18"/>
-      <c r="BD24" s="18"/>
-      <c r="BE24" s="18"/>
-      <c r="BF24" s="18"/>
-      <c r="BG24" s="18"/>
-      <c r="BH24" s="18"/>
-      <c r="BI24" s="18"/>
-      <c r="BJ24" s="18"/>
-      <c r="BK24" s="18"/>
-      <c r="BL24" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="AQ24" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
     </row>
-    <row r="25" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="6">
@@ -5216,7 +5451,7 @@
         <v>88</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>4</v>
@@ -5245,7 +5480,7 @@
       <c r="N25" s="6">
         <v>35</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="20" t="s">
         <v>89</v>
       </c>
       <c r="P25" s="11">
@@ -5291,38 +5526,38 @@
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="18"/>
-      <c r="BA25" s="18"/>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="18"/>
-      <c r="BD25" s="18"/>
-      <c r="BE25" s="18"/>
-      <c r="BF25" s="18"/>
-      <c r="BG25" s="18"/>
-      <c r="BH25" s="18"/>
-      <c r="BI25" s="18"/>
-      <c r="BJ25" s="18"/>
-      <c r="BK25" s="18"/>
-      <c r="BL25" s="18"/>
+        <v>230</v>
+      </c>
+      <c r="AQ25" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
     </row>
-    <row r="26" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="6">
@@ -5332,7 +5567,7 @@
         <v>92</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>4</v>
@@ -5361,7 +5596,7 @@
       <c r="N26" s="11">
         <v>35</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="20" t="s">
         <v>89</v>
       </c>
       <c r="P26" s="11">
@@ -5407,38 +5642,38 @@
       <c r="AN26" s="11"/>
       <c r="AO26" s="11"/>
       <c r="AP26" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ26" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
-      <c r="BI26" s="18"/>
-      <c r="BJ26" s="18"/>
-      <c r="BK26" s="18"/>
-      <c r="BL26" s="18"/>
+        <v>230</v>
+      </c>
+      <c r="AQ26" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
     </row>
-    <row r="27" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="6">
@@ -5448,7 +5683,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>11</v>
@@ -5477,7 +5712,7 @@
       <c r="N27" s="6">
         <v>12</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="20">
         <v>5.2</v>
       </c>
       <c r="P27" s="6">
@@ -5508,19 +5743,19 @@
         <v>1</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
+      </c>
+      <c r="Z27" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="AA27" s="6">
         <v>2</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="AC27" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
@@ -5535,17 +5770,17 @@
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ27" s="6" t="s">
-        <v>303</v>
+        <v>289</v>
+      </c>
+      <c r="AQ27" s="29" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="6">
@@ -5555,7 +5790,7 @@
         <v>104</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
@@ -5575,16 +5810,16 @@
       <c r="K28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N28" s="6">
         <v>12</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="20">
         <v>5.2</v>
       </c>
       <c r="P28" s="6">
@@ -5629,37 +5864,37 @@
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="16"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="16"/>
-      <c r="AX28" s="16"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="16"/>
-      <c r="BE28" s="16"/>
-      <c r="BF28" s="16"/>
-      <c r="BG28" s="16"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="16"/>
-      <c r="BJ28" s="16"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="16"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="16"/>
-      <c r="BO28" s="16"/>
-      <c r="BP28" s="16"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="14"/>
+      <c r="BM28" s="14"/>
+      <c r="BN28" s="14"/>
+      <c r="BO28" s="14"/>
+      <c r="BP28" s="14"/>
     </row>
-    <row r="29" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="6">
@@ -5669,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>11</v>
@@ -5689,16 +5924,16 @@
       <c r="K29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N29" s="6">
         <v>12</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="20">
         <v>13.2</v>
       </c>
       <c r="P29" s="6">
@@ -5744,11 +5979,11 @@
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
     </row>
-    <row r="30" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="6">
@@ -5758,7 +5993,7 @@
         <v>101</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>11</v>
@@ -5787,7 +6022,7 @@
       <c r="N30" s="6">
         <v>12</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="20">
         <v>13.2</v>
       </c>
       <c r="P30" s="6">
@@ -5818,19 +6053,19 @@
         <v>1</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="Z30" s="29" t="s">
+        <v>235</v>
       </c>
       <c r="AA30" s="6">
         <v>2</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>305</v>
+        <v>291</v>
+      </c>
+      <c r="AC30" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
@@ -5845,17 +6080,17 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>269</v>
+        <v>293</v>
+      </c>
+      <c r="AQ30" s="33" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C31" s="6">
@@ -5865,7 +6100,7 @@
         <v>106</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>4</v>
@@ -5885,16 +6120,16 @@
       <c r="K31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="20">
         <v>14.5</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="20">
         <v>25.5</v>
       </c>
       <c r="P31" s="6">
@@ -5940,11 +6175,11 @@
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
     </row>
-    <row r="32" spans="1:68" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:68" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="6">
@@ -5954,7 +6189,7 @@
         <v>95</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>4</v>
@@ -5980,10 +6215,10 @@
       <c r="M32" s="6">
         <v>2</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="20">
         <v>12.5</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P32" s="6">
@@ -6014,19 +6249,19 @@
         <v>1</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>225</v>
+        <v>236</v>
+      </c>
+      <c r="Z32" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="AA32" s="6">
         <v>2</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>308</v>
+        <v>294</v>
+      </c>
+      <c r="AC32" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -6041,17 +6276,17 @@
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AQ32" s="6" t="s">
-        <v>310</v>
+        <v>296</v>
+      </c>
+      <c r="AQ32" s="33" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="6">
@@ -6061,7 +6296,7 @@
         <v>108</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>11</v>
@@ -6121,10 +6356,10 @@
         <v>1</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z33" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="Z33" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
@@ -6142,17 +6377,17 @@
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
       <c r="AP33" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AQ33" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="AQ33" s="29" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="6">
@@ -6162,7 +6397,7 @@
         <v>112</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>4</v>
@@ -6191,7 +6426,7 @@
       <c r="N34" s="6">
         <v>10</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="20">
         <v>10.5</v>
       </c>
       <c r="P34" s="6">
@@ -6222,68 +6457,68 @@
         <v>1</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="Z34" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="AA34" s="6">
         <v>2</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>312</v>
+        <v>281</v>
+      </c>
+      <c r="AC34" s="29" t="s">
+        <v>299</v>
       </c>
       <c r="AD34" s="6">
         <v>3</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>314</v>
+        <v>300</v>
+      </c>
+      <c r="AF34" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="AG34" s="6">
         <v>4</v>
       </c>
       <c r="AH34" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>316</v>
+        <v>302</v>
+      </c>
+      <c r="AI34" s="29" t="s">
+        <v>303</v>
       </c>
       <c r="AJ34" s="6">
         <v>5</v>
       </c>
       <c r="AK34" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL34" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
+      </c>
+      <c r="AL34" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="AM34" s="6">
         <v>6</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AO34" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
+      </c>
+      <c r="AO34" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="AP34" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ34" s="6" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="AQ34" s="29" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="6">
@@ -6293,7 +6528,7 @@
         <v>115</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>4</v>
@@ -6322,7 +6557,7 @@
       <c r="N35" s="6">
         <v>11</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="20">
         <v>7.5</v>
       </c>
       <c r="P35" s="6">
@@ -6368,17 +6603,17 @@
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
       <c r="AP35" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
-        <v>225</v>
+        <v>240</v>
+      </c>
+      <c r="AQ35" s="29" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="6">
@@ -6388,7 +6623,7 @@
         <v>118</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>4</v>
@@ -6465,15 +6700,15 @@
       <c r="AP36" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ36" s="6" t="s">
-        <v>250</v>
+      <c r="AQ36" s="29" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="6">
@@ -6483,7 +6718,7 @@
         <v>122</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>4</v>
@@ -6509,7 +6744,7 @@
       <c r="M37" s="6">
         <v>2</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="20">
         <v>21.5</v>
       </c>
       <c r="O37" s="6">
@@ -6558,36 +6793,36 @@
       <c r="AN37" s="6"/>
       <c r="AO37" s="6"/>
       <c r="AP37" s="6" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AQ37" s="6"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="16"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="16"/>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
-      <c r="BF37" s="16"/>
-      <c r="BG37" s="16"/>
-      <c r="BH37" s="16"/>
-      <c r="BI37" s="16"/>
-      <c r="BJ37" s="16"/>
-      <c r="BK37" s="16"/>
-      <c r="BL37" s="16"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
     </row>
-    <row r="38" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C38" s="6">
@@ -6597,7 +6832,7 @@
         <v>126</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>4</v>
@@ -6672,36 +6907,36 @@
       <c r="AN38" s="6"/>
       <c r="AO38" s="6"/>
       <c r="AP38" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AQ38" s="6"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-      <c r="AX38" s="16"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
-      <c r="BC38" s="16"/>
-      <c r="BD38" s="16"/>
-      <c r="BE38" s="16"/>
-      <c r="BF38" s="16"/>
-      <c r="BG38" s="16"/>
-      <c r="BH38" s="16"/>
-      <c r="BI38" s="16"/>
-      <c r="BJ38" s="16"/>
-      <c r="BK38" s="16"/>
-      <c r="BL38" s="16"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="14"/>
+      <c r="BC38" s="14"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="14"/>
+      <c r="BH38" s="14"/>
+      <c r="BI38" s="14"/>
+      <c r="BJ38" s="14"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
     </row>
-    <row r="39" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="6">
@@ -6711,7 +6946,7 @@
         <v>128</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>11</v>
@@ -6740,13 +6975,13 @@
       <c r="N39" s="6">
         <v>15</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="20">
         <v>16.899999999999999</v>
       </c>
       <c r="P39" s="6">
         <v>81</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="30" t="s">
         <v>129</v>
       </c>
       <c r="R39" s="6">
@@ -6771,89 +7006,89 @@
         <v>1</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
+      </c>
+      <c r="Z39" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="AA39" s="6">
         <v>2</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="AC39" s="29" t="s">
+        <v>311</v>
       </c>
       <c r="AD39" s="6">
         <v>3</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>326</v>
+        <v>312</v>
+      </c>
+      <c r="AF39" s="29" t="s">
+        <v>313</v>
       </c>
       <c r="AG39" s="6">
         <v>4</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI39" s="6" t="s">
         <v>314</v>
+      </c>
+      <c r="AI39" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="AJ39" s="6">
         <v>5</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>329</v>
+        <v>315</v>
+      </c>
+      <c r="AL39" s="29" t="s">
+        <v>316</v>
       </c>
       <c r="AM39" s="6">
         <v>6</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO39" s="6" t="s">
-        <v>331</v>
+        <v>317</v>
+      </c>
+      <c r="AO39" s="29" t="s">
+        <v>318</v>
       </c>
       <c r="AP39" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AQ39" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="16"/>
-      <c r="AT39" s="16"/>
-      <c r="AU39" s="16"/>
-      <c r="AV39" s="16"/>
-      <c r="AW39" s="16"/>
-      <c r="AX39" s="16"/>
-      <c r="AY39" s="16"/>
-      <c r="AZ39" s="16"/>
-      <c r="BA39" s="16"/>
-      <c r="BB39" s="16"/>
-      <c r="BC39" s="16"/>
-      <c r="BD39" s="16"/>
-      <c r="BE39" s="16"/>
-      <c r="BF39" s="16"/>
-      <c r="BG39" s="16"/>
-      <c r="BH39" s="16"/>
-      <c r="BI39" s="16"/>
-      <c r="BJ39" s="16"/>
-      <c r="BK39" s="16"/>
-      <c r="BL39" s="16"/>
+        <v>319</v>
+      </c>
+      <c r="AQ39" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="14"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="14"/>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="14"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
     </row>
-    <row r="40" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C40" s="6">
@@ -6863,7 +7098,7 @@
         <v>132</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>11</v>
@@ -6892,7 +7127,7 @@
       <c r="N40" s="6">
         <v>15</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="20">
         <v>22.7</v>
       </c>
       <c r="P40" s="6">
@@ -6921,89 +7156,89 @@
       </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z40" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
+      </c>
+      <c r="Z40" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="AA40" s="6">
         <v>2</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>293</v>
+        <v>310</v>
+      </c>
+      <c r="AC40" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="AD40" s="6">
         <v>3</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF40" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
+      </c>
+      <c r="AF40" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="AG40" s="6">
         <v>4</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI40" s="6" t="s">
-        <v>331</v>
+        <v>315</v>
+      </c>
+      <c r="AI40" s="29" t="s">
+        <v>318</v>
       </c>
       <c r="AJ40" s="6">
         <v>5</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL40" s="6" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="AL40" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="AM40" s="6">
         <v>6</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="AO40" s="6" t="s">
-        <v>260</v>
+        <v>323</v>
+      </c>
+      <c r="AO40" s="33" t="s">
+        <v>249</v>
       </c>
       <c r="AP40" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AQ40" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AR40" s="16"/>
-      <c r="AS40" s="16"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="16"/>
-      <c r="AV40" s="16"/>
-      <c r="AW40" s="16"/>
-      <c r="AX40" s="16"/>
-      <c r="AY40" s="16"/>
-      <c r="AZ40" s="16"/>
-      <c r="BA40" s="16"/>
-      <c r="BB40" s="16"/>
-      <c r="BC40" s="16"/>
-      <c r="BD40" s="16"/>
-      <c r="BE40" s="16"/>
-      <c r="BF40" s="16"/>
-      <c r="BG40" s="16"/>
-      <c r="BH40" s="16"/>
-      <c r="BI40" s="16"/>
-      <c r="BJ40" s="16"/>
-      <c r="BK40" s="16"/>
-      <c r="BL40" s="16"/>
+        <v>324</v>
+      </c>
+      <c r="AQ40" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
     </row>
-    <row r="41" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="6">
@@ -7013,7 +7248,7 @@
         <v>134</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>4</v>
@@ -7042,7 +7277,7 @@
       <c r="N41" s="6">
         <v>14</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="20">
         <v>35.299999999999997</v>
       </c>
       <c r="P41" s="6">
@@ -7071,19 +7306,19 @@
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z41" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
+      </c>
+      <c r="Z41" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="AA41" s="6">
         <v>2</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>340</v>
+        <v>326</v>
+      </c>
+      <c r="AC41" s="29" t="s">
+        <v>327</v>
       </c>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
@@ -7098,38 +7333,38 @@
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ41" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AR41" s="16"/>
-      <c r="AS41" s="16"/>
-      <c r="AT41" s="16"/>
-      <c r="AU41" s="16"/>
-      <c r="AV41" s="16"/>
-      <c r="AW41" s="16"/>
-      <c r="AX41" s="16"/>
-      <c r="AY41" s="16"/>
-      <c r="AZ41" s="16"/>
-      <c r="BA41" s="16"/>
-      <c r="BB41" s="16"/>
-      <c r="BC41" s="16"/>
-      <c r="BD41" s="16"/>
-      <c r="BE41" s="16"/>
-      <c r="BF41" s="16"/>
-      <c r="BG41" s="16"/>
-      <c r="BH41" s="16"/>
-      <c r="BI41" s="16"/>
-      <c r="BJ41" s="16"/>
-      <c r="BK41" s="16"/>
-      <c r="BL41" s="16"/>
+        <v>328</v>
+      </c>
+      <c r="AQ41" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="14"/>
+      <c r="AZ41" s="14"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="14"/>
+      <c r="BH41" s="14"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
     </row>
-    <row r="42" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="6">
@@ -7139,7 +7374,7 @@
         <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>4</v>
@@ -7168,13 +7403,13 @@
       <c r="N42" s="6">
         <v>14</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="20">
         <v>55.7</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Q42" s="13" t="s">
+      <c r="Q42" s="30" t="s">
         <v>138</v>
       </c>
       <c r="R42" s="6">
@@ -7197,19 +7432,19 @@
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
+      </c>
+      <c r="Z42" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="AA42" s="6">
         <v>2</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>340</v>
+        <v>326</v>
+      </c>
+      <c r="AC42" s="29" t="s">
+        <v>327</v>
       </c>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
@@ -7224,38 +7459,38 @@
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ42" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="16"/>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="16"/>
-      <c r="AV42" s="16"/>
-      <c r="AW42" s="16"/>
-      <c r="AX42" s="16"/>
-      <c r="AY42" s="16"/>
-      <c r="AZ42" s="16"/>
-      <c r="BA42" s="16"/>
-      <c r="BB42" s="16"/>
-      <c r="BC42" s="16"/>
-      <c r="BD42" s="16"/>
-      <c r="BE42" s="16"/>
-      <c r="BF42" s="16"/>
-      <c r="BG42" s="16"/>
-      <c r="BH42" s="16"/>
-      <c r="BI42" s="16"/>
-      <c r="BJ42" s="16"/>
-      <c r="BK42" s="16"/>
-      <c r="BL42" s="16"/>
+        <v>328</v>
+      </c>
+      <c r="AQ42" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="14"/>
+      <c r="AZ42" s="14"/>
+      <c r="BA42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="14"/>
+      <c r="BH42" s="14"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
     </row>
-    <row r="43" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="6">
@@ -7265,7 +7500,7 @@
         <v>142</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>4</v>
@@ -7285,19 +7520,19 @@
       <c r="K43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="20" t="s">
         <v>144</v>
       </c>
       <c r="N43" s="6">
         <v>11</v>
       </c>
-      <c r="O43" s="10" t="s">
+      <c r="O43" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="P43" s="10" t="s">
+      <c r="P43" s="21" t="s">
         <v>146</v>
       </c>
       <c r="Q43" s="9">
@@ -7325,19 +7560,19 @@
         <v>1</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z43" s="6" t="s">
-        <v>225</v>
+        <v>244</v>
+      </c>
+      <c r="Z43" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="AA43" s="6">
         <v>2</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC43" s="6" t="s">
-        <v>275</v>
+        <v>330</v>
+      </c>
+      <c r="AC43" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
@@ -7352,38 +7587,38 @@
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
       <c r="AP43" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AQ43" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR43" s="16"/>
-      <c r="AS43" s="16"/>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="16"/>
-      <c r="AV43" s="16"/>
-      <c r="AW43" s="16"/>
-      <c r="AX43" s="16"/>
-      <c r="AY43" s="16"/>
-      <c r="AZ43" s="16"/>
-      <c r="BA43" s="16"/>
-      <c r="BB43" s="16"/>
-      <c r="BC43" s="16"/>
-      <c r="BD43" s="16"/>
-      <c r="BE43" s="16"/>
-      <c r="BF43" s="16"/>
-      <c r="BG43" s="16"/>
-      <c r="BH43" s="16"/>
-      <c r="BI43" s="16"/>
-      <c r="BJ43" s="16"/>
-      <c r="BK43" s="16"/>
-      <c r="BL43" s="16"/>
+        <v>331</v>
+      </c>
+      <c r="AQ43" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="14"/>
+      <c r="AZ43" s="14"/>
+      <c r="BA43" s="14"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="14"/>
+      <c r="BF43" s="14"/>
+      <c r="BG43" s="14"/>
+      <c r="BH43" s="14"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="14"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="14"/>
     </row>
-    <row r="44" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="6">
@@ -7393,7 +7628,7 @@
         <v>148</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>4</v>
@@ -7413,19 +7648,19 @@
       <c r="K44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="20" t="s">
         <v>144</v>
       </c>
       <c r="N44" s="6">
         <v>11</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O44" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P44" s="21" t="s">
         <v>149</v>
       </c>
       <c r="Q44" s="9">
@@ -7453,19 +7688,19 @@
         <v>1</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z44" s="6" t="s">
-        <v>225</v>
+        <v>245</v>
+      </c>
+      <c r="Z44" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="AA44" s="6">
         <v>2</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="AC44" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -7480,38 +7715,38 @@
       <c r="AN44" s="6"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AQ44" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AR44" s="16"/>
-      <c r="AS44" s="16"/>
-      <c r="AT44" s="16"/>
-      <c r="AU44" s="16"/>
-      <c r="AV44" s="16"/>
-      <c r="AW44" s="16"/>
-      <c r="AX44" s="16"/>
-      <c r="AY44" s="16"/>
-      <c r="AZ44" s="16"/>
-      <c r="BA44" s="16"/>
-      <c r="BB44" s="16"/>
-      <c r="BC44" s="16"/>
-      <c r="BD44" s="16"/>
-      <c r="BE44" s="16"/>
-      <c r="BF44" s="16"/>
-      <c r="BG44" s="16"/>
-      <c r="BH44" s="16"/>
-      <c r="BI44" s="16"/>
-      <c r="BJ44" s="16"/>
-      <c r="BK44" s="16"/>
-      <c r="BL44" s="16"/>
+        <v>331</v>
+      </c>
+      <c r="AQ44" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BC44" s="14"/>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="14"/>
+      <c r="BJ44" s="14"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
     </row>
-    <row r="45" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C45" s="6">
@@ -7521,7 +7756,7 @@
         <v>153</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>4</v>
@@ -7541,7 +7776,7 @@
       <c r="K45" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="20" t="s">
         <v>155</v>
       </c>
       <c r="M45" s="6">
@@ -7550,10 +7785,10 @@
       <c r="N45" s="6">
         <v>15</v>
       </c>
-      <c r="O45" s="10" t="s">
+      <c r="O45" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P45" s="10" t="s">
+      <c r="P45" s="21" t="s">
         <v>157</v>
       </c>
       <c r="Q45" s="9">
@@ -7581,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="Y45" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z45" s="6" t="s">
-        <v>218</v>
+        <v>246</v>
+      </c>
+      <c r="Z45" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -7602,38 +7837,38 @@
       <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AQ45" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR45" s="16"/>
-      <c r="AS45" s="16"/>
-      <c r="AT45" s="16"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="16"/>
-      <c r="AW45" s="16"/>
-      <c r="AX45" s="16"/>
-      <c r="AY45" s="16"/>
-      <c r="AZ45" s="16"/>
-      <c r="BA45" s="16"/>
-      <c r="BB45" s="16"/>
-      <c r="BC45" s="16"/>
-      <c r="BD45" s="16"/>
-      <c r="BE45" s="16"/>
-      <c r="BF45" s="16"/>
-      <c r="BG45" s="16"/>
-      <c r="BH45" s="16"/>
-      <c r="BI45" s="16"/>
-      <c r="BJ45" s="16"/>
-      <c r="BK45" s="16"/>
-      <c r="BL45" s="16"/>
+        <v>333</v>
+      </c>
+      <c r="AQ45" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="14"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="14"/>
+      <c r="BG45" s="14"/>
+      <c r="BH45" s="14"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="14"/>
+      <c r="BK45" s="14"/>
+      <c r="BL45" s="14"/>
     </row>
-    <row r="46" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C46" s="6">
@@ -7643,7 +7878,7 @@
         <v>161</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>4</v>
@@ -7663,7 +7898,7 @@
       <c r="K46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="20" t="s">
         <v>162</v>
       </c>
       <c r="M46" s="6">
@@ -7672,10 +7907,10 @@
       <c r="N46" s="6">
         <v>12</v>
       </c>
-      <c r="O46" s="10" t="s">
+      <c r="O46" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="P46" s="10" t="s">
+      <c r="P46" s="21" t="s">
         <v>164</v>
       </c>
       <c r="Q46" s="9">
@@ -7703,84 +7938,84 @@
         <v>1</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z46" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="Z46" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="AA46" s="6">
         <v>2</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>267</v>
+        <v>335</v>
+      </c>
+      <c r="AC46" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="AD46" s="6">
         <v>3</v>
       </c>
       <c r="AE46" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF46" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
+      </c>
+      <c r="AF46" s="29" t="s">
+        <v>336</v>
       </c>
       <c r="AG46" s="6">
         <v>4</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AI46" s="6" t="s">
-        <v>352</v>
+        <v>338</v>
+      </c>
+      <c r="AI46" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="AJ46" s="6">
         <v>5</v>
       </c>
       <c r="AK46" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AL46" s="6" t="s">
-        <v>285</v>
+        <v>340</v>
+      </c>
+      <c r="AL46" s="33" t="s">
+        <v>272</v>
       </c>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ46" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR46" s="16"/>
-      <c r="AS46" s="16"/>
-      <c r="AT46" s="16"/>
-      <c r="AU46" s="16"/>
-      <c r="AV46" s="16"/>
-      <c r="AW46" s="16"/>
-      <c r="AX46" s="16"/>
-      <c r="AY46" s="16"/>
-      <c r="AZ46" s="16"/>
-      <c r="BA46" s="16"/>
-      <c r="BB46" s="16"/>
-      <c r="BC46" s="16"/>
-      <c r="BD46" s="16"/>
-      <c r="BE46" s="16"/>
-      <c r="BF46" s="16"/>
-      <c r="BG46" s="16"/>
-      <c r="BH46" s="16"/>
-      <c r="BI46" s="16"/>
-      <c r="BJ46" s="16"/>
-      <c r="BK46" s="16"/>
-      <c r="BL46" s="16"/>
+        <v>341</v>
+      </c>
+      <c r="AQ46" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14"/>
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="14"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
     </row>
-    <row r="47" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>355</v>
+      <c r="B47" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -7789,7 +8024,7 @@
         <v>165</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>4</v>
@@ -7864,39 +8099,39 @@
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ47" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AR47" s="16"/>
-      <c r="AS47" s="16"/>
-      <c r="AT47" s="16"/>
-      <c r="AU47" s="16"/>
-      <c r="AV47" s="16"/>
-      <c r="AW47" s="16"/>
-      <c r="AX47" s="16"/>
-      <c r="AY47" s="16"/>
-      <c r="AZ47" s="16"/>
-      <c r="BA47" s="16"/>
-      <c r="BB47" s="16"/>
-      <c r="BC47" s="16"/>
-      <c r="BD47" s="16"/>
-      <c r="BE47" s="16"/>
-      <c r="BF47" s="16"/>
-      <c r="BG47" s="16"/>
-      <c r="BH47" s="16"/>
-      <c r="BI47" s="16"/>
-      <c r="BJ47" s="16"/>
-      <c r="BK47" s="16"/>
-      <c r="BL47" s="16"/>
+        <v>344</v>
+      </c>
+      <c r="AQ47" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="14"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="14"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="14"/>
     </row>
-    <row r="48" spans="1:64" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:64" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>356</v>
+      <c r="B48" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
@@ -7905,7 +8140,7 @@
         <v>165</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>4</v>
@@ -7980,36 +8215,37 @@
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ48" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AR48" s="16"/>
-      <c r="AS48" s="16"/>
-      <c r="AT48" s="16"/>
-      <c r="AU48" s="16"/>
-      <c r="AV48" s="16"/>
-      <c r="AW48" s="16"/>
-      <c r="AX48" s="16"/>
-      <c r="AY48" s="16"/>
-      <c r="AZ48" s="16"/>
-      <c r="BA48" s="16"/>
-      <c r="BB48" s="16"/>
-      <c r="BC48" s="16"/>
-      <c r="BD48" s="16"/>
-      <c r="BE48" s="16"/>
-      <c r="BF48" s="16"/>
-      <c r="BG48" s="16"/>
-      <c r="BH48" s="16"/>
-      <c r="BI48" s="16"/>
-      <c r="BJ48" s="16"/>
-      <c r="BK48" s="16"/>
-      <c r="BL48" s="16"/>
+        <v>345</v>
+      </c>
+      <c r="AQ48" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="14"/>
+      <c r="BC48" s="14"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="14"/>
+      <c r="BG48" s="14"/>
+      <c r="BH48" s="14"/>
+      <c r="BI48" s="14"/>
+      <c r="BJ48" s="14"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>